--- a/biology/Médecine/Proteus_mirabilis/Proteus_mirabilis.xlsx
+++ b/biology/Médecine/Proteus_mirabilis/Proteus_mirabilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Proteus mirabilis est une bactérie de type bacille à Gram négatif appartenant aux entérobactéries et au genre Proteus. Elle est commensale du tube digestif des animaux et peut être responsable d'infections essentiellement urinaires et cutanées. Cette bactérie est habituellement sensible aux antibiotiques actifs sur les entérobactéries, à l'exception de la colistine et des cyclines.
-P. mirabilis est à l'origine de 90 % de toutes les infections par Proteus chez l'être humain. Elle est très présente dans l'eau et les sols[1].
+P. mirabilis est à l'origine de 90 % de toutes les infections par Proteus chez l'être humain. Elle est très présente dans l'eau et les sols.
 Elle est connue pour provoquer des calculs rénaux. Cette bactérie est uréase positive et produit donc une uréase capable de transformer l'urée en ammoniaque, alcalinisant l'urine. Le pH alcalin va favoriser la précipitation du calcium retrouvé dans l'urine, formant alors des cristaux qui peuvent entraver le bon fonctionnement de l'arbre urinaire. 
 </t>
         </is>
